--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\agp\Deepsort_yolov5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54596F-306D-4F9D-8038-EB9801731A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
+    <workbookView xWindow="-12945" yWindow="615" windowWidth="12150" windowHeight="15585" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="제조 물량(새벽)"/>
-    <sheet r:id="rId2" sheetId="2" name="제조 물량(직접)"/>
-    <sheet r:id="rId3" sheetId="3" name="식재료 별 준비량"/>
-    <sheet r:id="rId4" sheetId="4" name="훈제오리"/>
-    <sheet r:id="rId5" sheetId="5" name="닭쏘"/>
-    <sheet r:id="rId6" sheetId="6" name="꽃맛살"/>
-    <sheet r:id="rId7" sheetId="7" name="들깨닭"/>
-    <sheet r:id="rId8" sheetId="8" name="오우"/>
-    <sheet r:id="rId9" sheetId="9" name="제조 물량(일반)"/>
-    <sheet r:id="rId10" sheetId="10" name="요청사항표-새벽배송"/>
-    <sheet r:id="rId11" sheetId="11" name="요청사항표-일반배송"/>
-    <sheet r:id="rId12" sheetId="12" name="요청사항표-직접배송"/>
+    <sheet name="제조 물량(새벽)" sheetId="1" r:id="rId1"/>
+    <sheet name="제조 물량(직접)" sheetId="2" r:id="rId2"/>
+    <sheet name="식재료 별 준비량" sheetId="3" r:id="rId3"/>
+    <sheet name="훈제오리" sheetId="4" r:id="rId4"/>
+    <sheet name="닭쏘" sheetId="5" r:id="rId5"/>
+    <sheet name="꽃맛살" sheetId="6" r:id="rId6"/>
+    <sheet name="들깨닭" sheetId="7" r:id="rId7"/>
+    <sheet name="오우" sheetId="8" r:id="rId8"/>
+    <sheet name="제조 물량(일반)" sheetId="9" r:id="rId9"/>
+    <sheet name="요청사항표-새벽배송" sheetId="10" r:id="rId10"/>
+    <sheet name="요청사항표-일반배송" sheetId="11" r:id="rId11"/>
+    <sheet name="요청사항표-직접배송" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -5370,13 +5376,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5397,6 +5402,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5442,55 +5454,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5501,10 +5512,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5542,71 +5553,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5634,7 +5645,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -5657,11 +5668,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -5670,13 +5681,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5686,7 +5697,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5695,7 +5706,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5704,7 +5715,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5712,10 +5723,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -5780,7 +5791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5788,30 +5799,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="46.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30.75">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5822,346 +5836,348 @@
         <v>1</v>
       </c>
       <c r="D1" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30.75">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30.75">
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30.75">
+    <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30.75">
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30.75">
+    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30.75">
+    <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30.75">
+    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30.75">
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30.75">
+    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="30.75">
+    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="30.75">
+    <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30.75">
+    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30.75">
+    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30.75">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30.75">
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30.75">
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30.75">
+    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30">
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30">
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30">
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="30">
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="30">
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="30">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="30">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30">
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="30">
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="30">
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30">
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6169,15 +6185,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="51.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -6191,7 +6207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6219,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6233,7 +6249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -6247,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6261,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -6275,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -6289,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -6303,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -6317,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -6331,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -6345,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -6359,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -6373,7 +6389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -6387,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -6415,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -6429,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -6443,7 +6459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -6457,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -6471,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -6499,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -6513,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6527,7 +6543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -6541,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6569,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6583,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6597,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6611,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>21</v>
       </c>
@@ -6653,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>22</v>
       </c>
@@ -6667,7 +6683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>23</v>
       </c>
@@ -6681,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>24</v>
       </c>
@@ -6695,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -6709,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>26</v>
       </c>
@@ -6723,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -6737,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -6751,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -6765,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>30</v>
       </c>
@@ -6779,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>31</v>
       </c>
@@ -6793,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>32</v>
       </c>
@@ -6807,19 +6823,20 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6827,14 +6844,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6842,14 +6860,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6857,13 +6876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -6871,7 +6889,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1745</v>
       </c>
@@ -6879,7 +6897,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
@@ -6887,7 +6905,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>746</v>
       </c>
@@ -6895,7 +6913,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>520</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>1712</v>
       </c>
@@ -6911,7 +6929,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1692</v>
       </c>
@@ -6919,7 +6937,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>1051</v>
       </c>
@@ -6927,7 +6945,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>1693</v>
       </c>
@@ -6935,7 +6953,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>1736</v>
       </c>
@@ -6943,7 +6961,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>1737</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>1726</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>1044</v>
       </c>
@@ -6967,7 +6985,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1727</v>
       </c>
@@ -6975,7 +6993,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>696</v>
       </c>
@@ -6983,7 +7001,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>1679</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1706</v>
       </c>
@@ -6999,7 +7017,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>1707</v>
       </c>
@@ -7007,7 +7025,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1708</v>
       </c>
@@ -7015,7 +7033,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>1709</v>
       </c>
@@ -7023,7 +7041,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1710</v>
       </c>
@@ -7031,7 +7049,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1685</v>
       </c>
@@ -7039,7 +7057,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>1711</v>
       </c>
@@ -7047,7 +7065,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1686</v>
       </c>
@@ -7055,7 +7073,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>1687</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>1688</v>
       </c>
@@ -7071,7 +7089,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>1689</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>1690</v>
       </c>
@@ -7087,7 +7105,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1691</v>
       </c>
@@ -7095,7 +7113,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>1661</v>
       </c>
@@ -7103,7 +7121,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>505</v>
       </c>
@@ -7112,12 +7130,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7125,23 +7144,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -7179,7 +7189,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1745</v>
       </c>
@@ -7218,12 +7228,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7231,24 +7242,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>601</v>
       </c>
@@ -7331,12 +7332,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7344,25 +7346,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -7406,7 +7397,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1044</v>
       </c>
@@ -7451,12 +7442,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7464,30 +7456,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -7546,7 +7522,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1713</v>
       </c>
@@ -7606,12 +7582,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7619,28 +7596,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1681</v>
       </c>
@@ -7693,7 +7656,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1660</v>
       </c>
@@ -7747,12 +7710,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7760,29 +7724,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="51.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="10" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
@@ -7838,7 +7789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
@@ -7892,7 +7843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
@@ -7944,7 +7895,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>101</v>
       </c>
@@ -7996,7 +7947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
@@ -8048,7 +7999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>114</v>
       </c>
@@ -8100,7 +8051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>121</v>
       </c>
@@ -8152,7 +8103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>127</v>
       </c>
@@ -8204,7 +8155,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>133</v>
       </c>
@@ -8256,7 +8207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>140</v>
       </c>
@@ -8308,7 +8259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
@@ -8360,7 +8311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -8412,7 +8363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>158</v>
       </c>
@@ -8464,7 +8415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>163</v>
       </c>
@@ -8516,7 +8467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>168</v>
       </c>
@@ -8568,7 +8519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>175</v>
       </c>
@@ -8620,7 +8571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>181</v>
       </c>
@@ -8672,7 +8623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>187</v>
       </c>
@@ -8724,7 +8675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>194</v>
       </c>
@@ -8776,7 +8727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>200</v>
       </c>
@@ -8828,7 +8779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>205</v>
       </c>
@@ -8880,7 +8831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>209</v>
       </c>
@@ -8932,7 +8883,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -8984,7 +8935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>220</v>
       </c>
@@ -9036,7 +8987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>225</v>
       </c>
@@ -9088,7 +9039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>231</v>
       </c>
@@ -9140,7 +9091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>238</v>
       </c>
@@ -9192,7 +9143,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>244</v>
       </c>
@@ -9244,7 +9195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>250</v>
       </c>
@@ -9296,7 +9247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>256</v>
       </c>
@@ -9348,7 +9299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>264</v>
       </c>
@@ -9400,7 +9351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>270</v>
       </c>
@@ -9452,7 +9403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>276</v>
       </c>
@@ -9504,7 +9455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>281</v>
       </c>
@@ -9556,7 +9507,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>287</v>
       </c>
@@ -9608,7 +9559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>293</v>
       </c>
@@ -9660,7 +9611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>298</v>
       </c>
@@ -9712,7 +9663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>304</v>
       </c>
@@ -9764,7 +9715,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>310</v>
       </c>
@@ -9816,7 +9767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>317</v>
       </c>
@@ -9868,7 +9819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>325</v>
       </c>
@@ -9920,7 +9871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>333</v>
       </c>
@@ -9972,7 +9923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>340</v>
       </c>
@@ -10024,7 +9975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>347</v>
       </c>
@@ -10076,7 +10027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>352</v>
       </c>
@@ -10128,7 +10079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>133</v>
       </c>
@@ -10180,7 +10131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>364</v>
       </c>
@@ -10232,7 +10183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>371</v>
       </c>
@@ -10286,7 +10237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>378</v>
       </c>
@@ -10338,7 +10289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>383</v>
       </c>
@@ -10390,7 +10341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>390</v>
       </c>
@@ -10442,7 +10393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>395</v>
       </c>
@@ -10494,7 +10445,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>400</v>
       </c>
@@ -10546,7 +10497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>406</v>
       </c>
@@ -10598,7 +10549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>411</v>
       </c>
@@ -10650,7 +10601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>417</v>
       </c>
@@ -10702,7 +10653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>421</v>
       </c>
@@ -10754,7 +10705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>426</v>
       </c>
@@ -10806,7 +10757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>432</v>
       </c>
@@ -10858,7 +10809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>438</v>
       </c>
@@ -10910,7 +10861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>445</v>
       </c>
@@ -10962,7 +10913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>451</v>
       </c>
@@ -11014,7 +10965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>458</v>
       </c>
@@ -11066,7 +11017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>465</v>
       </c>
@@ -11118,7 +11069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>471</v>
       </c>
@@ -11170,7 +11121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>476</v>
       </c>
@@ -11222,7 +11173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>482</v>
       </c>
@@ -11274,7 +11225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>487</v>
       </c>
@@ -11326,7 +11277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>495</v>
       </c>
@@ -11378,7 +11329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
@@ -11432,7 +11383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>506</v>
       </c>
@@ -11486,7 +11437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>514</v>
       </c>
@@ -11540,7 +11491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>521</v>
       </c>
@@ -11594,7 +11545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>527</v>
       </c>
@@ -11648,7 +11599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>534</v>
       </c>
@@ -11702,7 +11653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>540</v>
       </c>
@@ -11754,7 +11705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>546</v>
       </c>
@@ -11806,7 +11757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>553</v>
       </c>
@@ -11858,7 +11809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>559</v>
       </c>
@@ -11910,7 +11861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>566</v>
       </c>
@@ -11962,7 +11913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>574</v>
       </c>
@@ -12014,7 +11965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>581</v>
       </c>
@@ -12066,7 +12017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>586</v>
       </c>
@@ -12118,7 +12069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>591</v>
       </c>
@@ -12170,7 +12121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>597</v>
       </c>
@@ -12224,7 +12175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>602</v>
       </c>
@@ -12276,7 +12227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>608</v>
       </c>
@@ -12328,7 +12279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>614</v>
       </c>
@@ -12382,7 +12333,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>621</v>
       </c>
@@ -12436,7 +12387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>628</v>
       </c>
@@ -12492,7 +12443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>637</v>
       </c>
@@ -12546,7 +12497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>644</v>
       </c>
@@ -12600,7 +12551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>650</v>
       </c>
@@ -12654,7 +12605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>657</v>
       </c>
@@ -12710,7 +12661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>665</v>
       </c>
@@ -12766,7 +12717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>674</v>
       </c>
@@ -12820,7 +12771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>682</v>
       </c>
@@ -12874,7 +12825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>691</v>
       </c>
@@ -12928,7 +12879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>697</v>
       </c>
@@ -12982,7 +12933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>703</v>
       </c>
@@ -13038,7 +12989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>710</v>
       </c>
@@ -13090,7 +13041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>717</v>
       </c>
@@ -13144,7 +13095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>723</v>
       </c>
@@ -13198,7 +13149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>730</v>
       </c>
@@ -13252,7 +13203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>735</v>
       </c>
@@ -13306,7 +13257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>740</v>
       </c>
@@ -13360,7 +13311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>747</v>
       </c>
@@ -13416,7 +13367,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>755</v>
       </c>
@@ -13470,7 +13421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>759</v>
       </c>
@@ -13524,7 +13475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>766</v>
       </c>
@@ -13578,7 +13529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>772</v>
       </c>
@@ -13634,7 +13585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>779</v>
       </c>
@@ -13690,7 +13641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>786</v>
       </c>
@@ -13746,7 +13697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>796</v>
       </c>
@@ -13802,7 +13753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>806</v>
       </c>
@@ -13856,7 +13807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>814</v>
       </c>
@@ -13912,7 +13863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>819</v>
       </c>
@@ -13964,7 +13915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>825</v>
       </c>
@@ -14020,7 +13971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>833</v>
       </c>
@@ -14076,7 +14027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>845</v>
       </c>
@@ -14128,7 +14079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -14180,7 +14131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>857</v>
       </c>
@@ -14232,7 +14183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>863</v>
       </c>
@@ -14284,7 +14235,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>870</v>
       </c>
@@ -14336,7 +14287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>878</v>
       </c>
@@ -14388,7 +14339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>883</v>
       </c>
@@ -14440,7 +14391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>888</v>
       </c>
@@ -14492,7 +14443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>895</v>
       </c>
@@ -14544,7 +14495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>901</v>
       </c>
@@ -14596,7 +14547,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>905</v>
       </c>
@@ -14648,7 +14599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>912</v>
       </c>
@@ -14700,7 +14651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>912</v>
       </c>
@@ -14752,7 +14703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>918</v>
       </c>
@@ -14804,7 +14755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>925</v>
       </c>
@@ -14856,7 +14807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>930</v>
       </c>
@@ -14908,7 +14859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>935</v>
       </c>
@@ -14960,7 +14911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>940</v>
       </c>
@@ -15012,7 +14963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>945</v>
       </c>
@@ -15064,7 +15015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>950</v>
       </c>
@@ -15116,7 +15067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>955</v>
       </c>
@@ -15168,7 +15119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>962</v>
       </c>
@@ -15222,7 +15173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>121</v>
       </c>
@@ -15276,7 +15227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>972</v>
       </c>
@@ -15328,7 +15279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>979</v>
       </c>
@@ -15380,7 +15331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>986</v>
       </c>
@@ -15432,7 +15383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>992</v>
       </c>
@@ -15484,7 +15435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>999</v>
       </c>
@@ -15540,7 +15491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>1008</v>
       </c>
@@ -15594,7 +15545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>1016</v>
       </c>
@@ -15648,7 +15599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>1023</v>
       </c>
@@ -15702,7 +15653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>1030</v>
       </c>
@@ -15756,7 +15707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>1037</v>
       </c>
@@ -15810,7 +15761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>1045</v>
       </c>
@@ -15864,7 +15815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>1052</v>
       </c>
@@ -15916,7 +15867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>1062</v>
       </c>
@@ -15968,7 +15919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>1069</v>
       </c>
@@ -16020,7 +15971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>1074</v>
       </c>
@@ -16074,7 +16025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>1079</v>
       </c>
@@ -16128,7 +16079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>1087</v>
       </c>
@@ -16180,7 +16131,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>1093</v>
       </c>
@@ -16232,7 +16183,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>1099</v>
       </c>
@@ -16284,7 +16235,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>1106</v>
       </c>
@@ -16336,7 +16287,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>1114</v>
       </c>
@@ -16388,7 +16339,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>1120</v>
       </c>
@@ -16440,7 +16391,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>1126</v>
       </c>
@@ -16492,7 +16443,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>1132</v>
       </c>
@@ -16544,7 +16495,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>1139</v>
       </c>
@@ -16596,7 +16547,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>1145</v>
       </c>
@@ -16648,7 +16599,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>1150</v>
       </c>
@@ -16700,7 +16651,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>1156</v>
       </c>
@@ -16752,7 +16703,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>1162</v>
       </c>
@@ -16804,7 +16755,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>1168</v>
       </c>
@@ -16856,7 +16807,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>1175</v>
       </c>
@@ -16908,7 +16859,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>1181</v>
       </c>
@@ -16962,7 +16913,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>325</v>
       </c>
@@ -17014,7 +16965,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>1192</v>
       </c>
@@ -17066,7 +17017,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>1198</v>
       </c>
@@ -17118,7 +17069,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>1203</v>
       </c>
@@ -17170,7 +17121,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>1208</v>
       </c>
@@ -17222,7 +17173,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>1099</v>
       </c>
@@ -17274,7 +17225,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>1217</v>
       </c>
@@ -17326,7 +17277,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>1222</v>
       </c>
@@ -17378,7 +17329,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>1228</v>
       </c>
@@ -17430,7 +17381,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>1235</v>
       </c>
@@ -17482,7 +17433,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>1241</v>
       </c>
@@ -17534,7 +17485,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>1247</v>
       </c>
@@ -17586,7 +17537,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>1253</v>
       </c>
@@ -17638,7 +17589,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>1258</v>
       </c>
@@ -17690,7 +17641,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>1265</v>
       </c>
@@ -17742,7 +17693,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>1270</v>
       </c>
@@ -17794,7 +17745,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>1277</v>
       </c>
@@ -17846,7 +17797,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>1284</v>
       </c>
@@ -17898,7 +17849,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>1289</v>
       </c>
@@ -17950,7 +17901,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>1294</v>
       </c>
@@ -18002,7 +17953,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>1299</v>
       </c>
@@ -18054,7 +18005,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>1305</v>
       </c>
@@ -18106,7 +18057,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>1311</v>
       </c>
@@ -18158,7 +18109,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>1316</v>
       </c>
@@ -18210,7 +18161,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>1323</v>
       </c>
@@ -18262,7 +18213,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>1330</v>
       </c>
@@ -18314,7 +18265,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>1336</v>
       </c>
@@ -18366,7 +18317,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>1343</v>
       </c>
@@ -18418,7 +18369,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>1349</v>
       </c>
@@ -18472,7 +18423,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>1354</v>
       </c>
@@ -18526,7 +18477,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>1359</v>
       </c>
@@ -18580,7 +18531,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>1364</v>
       </c>
@@ -18634,7 +18585,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>1369</v>
       </c>
@@ -18688,7 +18639,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>1377</v>
       </c>
@@ -18740,7 +18691,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>1383</v>
       </c>
@@ -18792,7 +18743,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>1390</v>
       </c>
@@ -18844,7 +18795,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>1395</v>
       </c>
@@ -18896,7 +18847,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>1400</v>
       </c>
@@ -18948,7 +18899,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>1406</v>
       </c>
@@ -19000,7 +18951,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>1413</v>
       </c>
@@ -19052,7 +19003,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>1418</v>
       </c>
@@ -19104,7 +19055,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>1425</v>
       </c>
@@ -19156,7 +19107,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>1431</v>
       </c>
@@ -19208,7 +19159,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>1436</v>
       </c>
@@ -19260,7 +19211,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>1442</v>
       </c>
@@ -19312,7 +19263,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>1447</v>
       </c>
@@ -19364,7 +19315,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>1452</v>
       </c>
@@ -19418,7 +19369,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>1457</v>
       </c>
@@ -19470,7 +19421,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
         <v>1462</v>
       </c>
@@ -19524,7 +19475,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
         <v>1468</v>
       </c>
@@ -19578,7 +19529,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>772</v>
       </c>
@@ -19634,7 +19585,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>1480</v>
       </c>
@@ -19688,7 +19639,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>1488</v>
       </c>
@@ -19742,7 +19693,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>1492</v>
       </c>
@@ -19796,7 +19747,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10" t="s">
         <v>1497</v>
       </c>
@@ -19850,7 +19801,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
         <v>1504</v>
       </c>
@@ -19904,7 +19855,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>1509</v>
       </c>
@@ -19958,7 +19909,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>1515</v>
       </c>
@@ -20012,7 +19963,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>1521</v>
       </c>
@@ -20066,7 +20017,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>1528</v>
       </c>
@@ -20120,7 +20071,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>1533</v>
       </c>
@@ -20174,7 +20125,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>1541</v>
       </c>
@@ -20228,7 +20179,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>1547</v>
       </c>
@@ -20280,7 +20231,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>1552</v>
       </c>
@@ -20332,7 +20283,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+    <row r="239" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
         <v>1558</v>
       </c>
@@ -20384,7 +20335,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>1563</v>
       </c>
@@ -20438,7 +20389,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+    <row r="241" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>1572</v>
       </c>
@@ -20494,7 +20445,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>1581</v>
       </c>
@@ -20546,7 +20497,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>1587</v>
       </c>
@@ -20598,7 +20549,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
         <v>1593</v>
       </c>
@@ -20650,7 +20601,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+    <row r="245" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>1601</v>
       </c>
@@ -20702,7 +20653,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+    <row r="246" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>1608</v>
       </c>
@@ -20754,7 +20705,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+    <row r="247" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>1615</v>
       </c>
@@ -20806,7 +20757,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+    <row r="248" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>1620</v>
       </c>
@@ -20860,7 +20811,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+    <row r="249" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>1627</v>
       </c>
@@ -20912,7 +20863,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
         <v>1632</v>
       </c>
@@ -20964,7 +20915,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+    <row r="251" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>1637</v>
       </c>
@@ -21016,7 +20967,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>1644</v>
       </c>
@@ -21068,7 +21019,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+    <row r="253" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
         <v>1650</v>
       </c>
@@ -21120,7 +21071,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
         <v>1655</v>
       </c>
@@ -21176,7 +21127,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
         <v>1662</v>
       </c>
@@ -21230,7 +21181,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+    <row r="256" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>1668</v>
       </c>
@@ -21286,7 +21237,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>1674</v>
       </c>
@@ -21343,6 +21294,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>